--- a/testData/SearchBreed_one.xlsx
+++ b/testData/SearchBreed_one.xlsx
@@ -28,10 +28,10 @@
     <t>Breed Type</t>
   </si>
   <si>
+    <t>https://dog.ceo/api/breeds/list/all</t>
+  </si>
+  <si>
     <t>retriever</t>
-  </si>
-  <si>
-    <t>https://dog.ceo/api/breeds/list/all</t>
   </si>
 </sst>
 </file>
@@ -446,13 +446,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
